--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Slit2-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Slit2-Sdc1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.01246433333333333</v>
+        <v>0.04027</v>
       </c>
       <c r="H2">
-        <v>0.037393</v>
+        <v>0.12081</v>
       </c>
       <c r="I2">
-        <v>0.0065371131913745</v>
+        <v>0.01318991723029425</v>
       </c>
       <c r="J2">
-        <v>0.0065371131913745</v>
+        <v>0.01318991723029425</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.482117666666667</v>
+        <v>0.2799683333333333</v>
       </c>
       <c r="N2">
-        <v>4.446353</v>
+        <v>0.839905</v>
       </c>
       <c r="O2">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="P2">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="Q2">
-        <v>0.01847360863655555</v>
+        <v>0.01127432478333333</v>
       </c>
       <c r="R2">
-        <v>0.166262477729</v>
+        <v>0.10146892305</v>
       </c>
       <c r="S2">
-        <v>0.0009163916491346591</v>
+        <v>0.0003881864700223443</v>
       </c>
       <c r="T2">
-        <v>0.0009163916491346593</v>
+        <v>0.0003881864700223443</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.01246433333333333</v>
+        <v>0.04027</v>
       </c>
       <c r="H3">
-        <v>0.037393</v>
+        <v>0.12081</v>
       </c>
       <c r="I3">
-        <v>0.0065371131913745</v>
+        <v>0.01318991723029425</v>
       </c>
       <c r="J3">
-        <v>0.0065371131913745</v>
+        <v>0.01318991723029425</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>7.097371</v>
       </c>
       <c r="O3">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732164</v>
       </c>
       <c r="P3">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732163</v>
       </c>
       <c r="Q3">
-        <v>0.02948799931144444</v>
+        <v>0.09527037672333334</v>
       </c>
       <c r="R3">
-        <v>0.2653919938029999</v>
+        <v>0.85743339051</v>
       </c>
       <c r="S3">
-        <v>0.001462765442872058</v>
+        <v>0.003280255975293582</v>
       </c>
       <c r="T3">
-        <v>0.001462765442872058</v>
+        <v>0.003280255975293581</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.01246433333333333</v>
+        <v>0.04027</v>
       </c>
       <c r="H4">
-        <v>0.037393</v>
+        <v>0.12081</v>
       </c>
       <c r="I4">
-        <v>0.0065371131913745</v>
+        <v>0.01318991723029425</v>
       </c>
       <c r="J4">
-        <v>0.0065371131913745</v>
+        <v>0.01318991723029425</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.724832333333334</v>
+        <v>6.86709</v>
       </c>
       <c r="N4">
-        <v>20.174497</v>
+        <v>20.60127</v>
       </c>
       <c r="O4">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="P4">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="Q4">
-        <v>0.08382055181344446</v>
+        <v>0.2765377143</v>
       </c>
       <c r="R4">
-        <v>0.7543849663210001</v>
+        <v>2.4888394287</v>
       </c>
       <c r="S4">
-        <v>0.004157956099367782</v>
+        <v>0.009521474784978327</v>
       </c>
       <c r="T4">
-        <v>0.004157956099367782</v>
+        <v>0.009521474784978326</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.994373</v>
+        <v>0.9943730000000001</v>
       </c>
       <c r="H5">
         <v>2.983119</v>
       </c>
       <c r="I5">
-        <v>0.5215143627507798</v>
+        <v>0.3256940046198011</v>
       </c>
       <c r="J5">
-        <v>0.5215143627507798</v>
+        <v>0.325694004619801</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.482117666666667</v>
+        <v>0.2799683333333333</v>
       </c>
       <c r="N5">
-        <v>4.446353</v>
+        <v>0.839905</v>
       </c>
       <c r="O5">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="P5">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="Q5">
-        <v>1.473777790556333</v>
+        <v>0.2783929515216667</v>
       </c>
       <c r="R5">
-        <v>13.264000115007</v>
+        <v>2.505536563695</v>
       </c>
       <c r="S5">
-        <v>0.07310740887264823</v>
+        <v>0.009585352489583527</v>
       </c>
       <c r="T5">
-        <v>0.07310740887264824</v>
+        <v>0.009585352489583527</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.994373</v>
+        <v>0.9943730000000001</v>
       </c>
       <c r="H6">
         <v>2.983119</v>
       </c>
       <c r="I6">
-        <v>0.5215143627507798</v>
+        <v>0.3256940046198011</v>
       </c>
       <c r="J6">
-        <v>0.5215143627507798</v>
+        <v>0.325694004619801</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>7.097371</v>
       </c>
       <c r="O6">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732164</v>
       </c>
       <c r="P6">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732163</v>
       </c>
       <c r="Q6">
         <v>2.352478031127667</v>
@@ -818,10 +818,10 @@
         <v>21.172302280149</v>
       </c>
       <c r="S6">
-        <v>0.1166957287507034</v>
+        <v>0.08099821144575629</v>
       </c>
       <c r="T6">
-        <v>0.1166957287507034</v>
+        <v>0.08099821144575627</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.994373</v>
+        <v>0.9943730000000001</v>
       </c>
       <c r="H7">
         <v>2.983119</v>
       </c>
       <c r="I7">
-        <v>0.5215143627507798</v>
+        <v>0.3256940046198011</v>
       </c>
       <c r="J7">
-        <v>0.5215143627507798</v>
+        <v>0.325694004619801</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.724832333333334</v>
+        <v>6.86709</v>
       </c>
       <c r="N7">
-        <v>20.174497</v>
+        <v>20.60127</v>
       </c>
       <c r="O7">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="P7">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="Q7">
-        <v>6.686991701793668</v>
+        <v>6.82844888457</v>
       </c>
       <c r="R7">
-        <v>60.18292531614301</v>
+        <v>61.45603996113</v>
       </c>
       <c r="S7">
-        <v>0.3317112251274281</v>
+        <v>0.2351104406844613</v>
       </c>
       <c r="T7">
-        <v>0.3317112251274281</v>
+        <v>0.2351104406844612</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8998656666666666</v>
+        <v>2.018446666666666</v>
       </c>
       <c r="H8">
-        <v>2.699597</v>
+        <v>6.055339999999999</v>
       </c>
       <c r="I8">
-        <v>0.4719485240578458</v>
+        <v>0.6611160781499047</v>
       </c>
       <c r="J8">
-        <v>0.4719485240578458</v>
+        <v>0.6611160781499047</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.482117666666667</v>
+        <v>0.2799683333333333</v>
       </c>
       <c r="N8">
-        <v>4.446353</v>
+        <v>0.839905</v>
       </c>
       <c r="O8">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="P8">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="Q8">
-        <v>1.333706802193444</v>
+        <v>0.5651011491888888</v>
       </c>
       <c r="R8">
-        <v>12.003361219741</v>
+        <v>5.085910342699999</v>
       </c>
       <c r="S8">
-        <v>0.06615912461768188</v>
+        <v>0.01945700736185003</v>
       </c>
       <c r="T8">
-        <v>0.06615912461768189</v>
+        <v>0.01945700736185003</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8998656666666666</v>
+        <v>2.018446666666666</v>
       </c>
       <c r="H9">
-        <v>2.699597</v>
+        <v>6.055339999999999</v>
       </c>
       <c r="I9">
-        <v>0.4719485240578458</v>
+        <v>0.6611160781499047</v>
       </c>
       <c r="J9">
-        <v>0.4719485240578458</v>
+        <v>0.6611160781499047</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>7.097371</v>
       </c>
       <c r="O9">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732164</v>
       </c>
       <c r="P9">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732163</v>
       </c>
       <c r="Q9">
-        <v>2.128893495498555</v>
+        <v>4.775221612348888</v>
       </c>
       <c r="R9">
-        <v>19.160041459487</v>
+        <v>42.97699451113999</v>
       </c>
       <c r="S9">
-        <v>0.1056047174947471</v>
+        <v>0.1644157372521665</v>
       </c>
       <c r="T9">
-        <v>0.1056047174947472</v>
+        <v>0.1644157372521665</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8998656666666666</v>
+        <v>2.018446666666666</v>
       </c>
       <c r="H10">
-        <v>2.699597</v>
+        <v>6.055339999999999</v>
       </c>
       <c r="I10">
-        <v>0.4719485240578458</v>
+        <v>0.6611160781499047</v>
       </c>
       <c r="J10">
-        <v>0.4719485240578458</v>
+        <v>0.6611160781499047</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.724832333333334</v>
+        <v>6.86709</v>
       </c>
       <c r="N10">
-        <v>20.174497</v>
+        <v>20.60127</v>
       </c>
       <c r="O10">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="P10">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="Q10">
-        <v>6.051445730856556</v>
+        <v>13.8608549202</v>
       </c>
       <c r="R10">
-        <v>54.463011577709</v>
+        <v>124.7476942818</v>
       </c>
       <c r="S10">
-        <v>0.3001846819454167</v>
+        <v>0.4772433335358882</v>
       </c>
       <c r="T10">
-        <v>0.3001846819454168</v>
+        <v>0.4772433335358882</v>
       </c>
     </row>
   </sheetData>
